--- a/biology/Botanique/Palicourea_racemosa/Palicourea_racemosa.xlsx
+++ b/biology/Botanique/Palicourea_racemosa/Palicourea_racemosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea racemosa est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Palicourea racemosa est un sous-arbrisseau ou arbuste, hirtelleux à glabrescent, atteignant jusqu'à 3 m de haut. 
 Les feuilles mesurent 8,5-18 × 2,5-8,5 cm et ont des pétioles longs de 3-15 mm.
@@ -520,10 +534,10 @@
 Le limbe du calice est lobé, long de 0,5-1 mm.
 La corolle est blanche, avec un tube long de 1,5-3 mm, des lobes longs de 1,2-1,5 mm, avec des projections abaxiales longues de 0,5-1 mm.
 Le fruit est subglobuleux à oblate, mesurant 3,5-4 × 5-6 mm, et devenant orange puis rouge et enfin noir.
-Il contient 5 pyrènes, avec une fissure ventrale longitudinale centrale, et une strie dorsale[6].
+Il contient 5 pyrènes, avec une fissure ventrale longitudinale centrale, et une strie dorsale.
 En 1953, Lemée en propose la description suivante de Palicourea racemosa :
 « [Psychotria] racemosa Rich. non W. , Glabre, à feuilles de 0,25-0,27 sur 0,08 oblongues-elliptiques acuminées aux 2 extrémités, luisantes en desspus, à pétiole d'environ 25-30 mm., stipules bifides à lobes longuement acuminés ; inflorescences en grappes terminales pédonculées deux fois plus courtes que les feuilles, à rachis anguleux pubérulent, fleurs ? ; fruit comprimé, fortement côtelé. - Guy. franç. (Dec. loc. cit. et I. k.). »
-— Albert Lemée, 1953.[7]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -551,9 +565,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea racemosa est présent de la Mexique au Brésil, en passant par l'Amérique centrale, la Colombie, le Venezuela, le Guyana, le Suriname, et la Guyane, l'Équateur, le Pérou, et la Bolivie[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea racemosa est présent de la Mexique au Brésil, en passant par l'Amérique centrale, la Colombie, le Venezuela, le Guyana, le Suriname, et la Guyane, l'Équateur, le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -582,16 +598,18 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Palicourea racemosa pousse dans les forêts de plaine, forêts riveraines, forêts de caatinga du Río Negro sur sable blanc, à 50-600 m d'altitude[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Palicourea racemosa pousse dans les forêts de plaine, forêts riveraines, forêts de caatinga du Río Negro sur sable blanc, à 50-600 m d'altitude.
 Plusieurs aspects de Palicourea racemosa ont été étudiés : 
-La  modélisation de sa surface foliaire[8],
-sa phénologie reproductive[9],[10],
-ses échanges gazeux et son index chlorophyllien[11],
-la morphométrie des ses fruits et semences[12],
-son écophysiologie[13],
-sa composition chimique[14].</t>
+La  modélisation de sa surface foliaire,
+sa phénologie reproductive
+ses échanges gazeux et son index chlorophyllien,
+la morphométrie des ses fruits et semences,
+son écophysiologie,
+sa composition chimique.</t>
         </is>
       </c>
     </row>
@@ -619,9 +637,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea racemosa sous le nom de Nonatelia racemosa et en a proposé le protologue suivant[15] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea racemosa sous le nom de Nonatelia racemosa et en a proposé le protologue suivant : 
 « 4. NONATELIA (racemoſa) foliis ovatis, acutis, petiolatis, involucro calicis tetraphyllo. (Tabula 72.)
 Frutex trunco bi vel tri-pedali, ramoſo. Rami nodoſi. Folia ovato-oblonga, acuminata, glabra, ſupernè atro-virentia, internè paliidiora, petiolata. Stipulæ amplexicaules, quadrilobæ, adnexæ. Flores racemoſi, terminales. Involucrum calicis tetraphyllum, foliolis longis, anguſtis. Corolla alba; tubus ventricoſus, limbus quinquendus, lobis acutis. Bacca nigra, decemſtriata, quinquelocularis.
 Habitat in ſylvis territorii Orapu.
